--- a/mytest.xlsx
+++ b/mytest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Lighting-assessment-software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lighting-assessment-software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708801A7-E497-4741-AB55-C96F5B4EDE3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785771EC-AFDD-45A2-898C-FED69BF1777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6816" yWindow="1140" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="1620" windowWidth="17952" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>ganrao_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,174 +472,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
         <v>12</v>
       </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2">
-        <v>100</v>
-      </c>
-      <c r="Q2">
-        <v>100</v>
-      </c>
-      <c r="R2">
-        <v>100</v>
-      </c>
-      <c r="S2">
-        <v>100</v>
-      </c>
-      <c r="T2">
-        <v>100</v>
-      </c>
-      <c r="U2">
-        <v>100</v>
-      </c>
-      <c r="V2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>155</v>
+      </c>
       <c r="C3">
         <v>155</v>
       </c>
       <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
         <v>155</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
       <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
         <v>155</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
       </c>
       <c r="H3">
         <v>155</v>
       </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
         <v>155</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
       <c r="K3">
         <v>155</v>
@@ -644,1138 +651,1200 @@
         <v>155</v>
       </c>
       <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
         <v>155</v>
       </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
       <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
         <v>155</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
       </c>
       <c r="Q3">
         <v>155</v>
       </c>
       <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
         <v>155</v>
-      </c>
-      <c r="S3">
-        <v>100</v>
       </c>
       <c r="T3">
         <v>155</v>
       </c>
       <c r="U3">
-        <v>155</v>
-      </c>
-      <c r="V3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>154</v>
+      </c>
       <c r="C4">
+        <v>692</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>692</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>692</v>
+      </c>
+      <c r="H4">
         <v>154</v>
       </c>
-      <c r="D4">
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>154</v>
+      </c>
+      <c r="K4">
         <v>692</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
+      <c r="L4">
+        <v>154</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>154</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
         <v>692</v>
       </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
+      <c r="Q4">
+        <v>154</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>154</v>
+      </c>
+      <c r="T4">
         <v>692</v>
       </c>
-      <c r="I4">
-        <v>154</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>154</v>
-      </c>
-      <c r="L4">
-        <v>692</v>
-      </c>
-      <c r="M4">
-        <v>154</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>154</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
-      </c>
-      <c r="Q4">
-        <v>692</v>
-      </c>
-      <c r="R4">
-        <v>154</v>
-      </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="T4">
-        <v>154</v>
-      </c>
       <c r="U4">
-        <v>692</v>
-      </c>
-      <c r="V4">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>121</v>
+      </c>
       <c r="C5">
+        <v>582</v>
+      </c>
+      <c r="D5">
+        <v>50000</v>
+      </c>
+      <c r="E5">
+        <v>582</v>
+      </c>
+      <c r="F5">
+        <v>50000</v>
+      </c>
+      <c r="G5">
+        <v>582</v>
+      </c>
+      <c r="H5">
         <v>121</v>
       </c>
-      <c r="D5">
-        <v>582</v>
-      </c>
-      <c r="E5">
-        <v>50000</v>
-      </c>
-      <c r="F5">
-        <v>582</v>
-      </c>
-      <c r="G5">
-        <v>50000</v>
-      </c>
-      <c r="H5">
-        <v>582</v>
-      </c>
       <c r="I5">
+        <v>50000</v>
+      </c>
+      <c r="J5">
         <v>121</v>
       </c>
-      <c r="J5">
-        <v>50000</v>
-      </c>
       <c r="K5">
+        <v>582</v>
+      </c>
+      <c r="L5">
         <v>121</v>
       </c>
-      <c r="L5">
-        <v>582</v>
-      </c>
       <c r="M5">
+        <v>50000</v>
+      </c>
+      <c r="N5">
         <v>121</v>
       </c>
-      <c r="N5">
-        <v>50000</v>
-      </c>
       <c r="O5">
+        <v>50000</v>
+      </c>
+      <c r="P5">
+        <v>582</v>
+      </c>
+      <c r="Q5">
         <v>121</v>
       </c>
-      <c r="P5">
-        <v>50000</v>
-      </c>
-      <c r="Q5">
-        <v>582</v>
-      </c>
       <c r="R5">
+        <v>50000</v>
+      </c>
+      <c r="S5">
         <v>121</v>
       </c>
-      <c r="S5">
-        <v>50000</v>
-      </c>
       <c r="T5">
-        <v>121</v>
+        <v>582</v>
       </c>
       <c r="U5">
-        <v>582</v>
-      </c>
-      <c r="V5">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>456</v>
+      </c>
       <c r="C6">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>50000</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>47</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>50000</v>
       </c>
       <c r="G6">
-        <v>50000</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>456</v>
       </c>
       <c r="I6">
-        <v>456</v>
+        <v>50000</v>
       </c>
       <c r="J6">
-        <v>50000</v>
+        <v>456</v>
       </c>
       <c r="K6">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>456</v>
       </c>
       <c r="M6">
-        <v>456</v>
+        <v>50000</v>
       </c>
       <c r="N6">
-        <v>50000</v>
+        <v>456</v>
       </c>
       <c r="O6">
-        <v>456</v>
+        <v>50000</v>
       </c>
       <c r="P6">
-        <v>50000</v>
+        <v>47</v>
       </c>
       <c r="Q6">
-        <v>47</v>
+        <v>456</v>
       </c>
       <c r="R6">
-        <v>456</v>
+        <v>50000</v>
       </c>
       <c r="S6">
-        <v>50000</v>
+        <v>456</v>
       </c>
       <c r="T6">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="U6">
-        <v>47</v>
-      </c>
-      <c r="V6">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
       <c r="C7">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <v>50000</v>
+      </c>
+      <c r="E7">
+        <v>231</v>
+      </c>
+      <c r="F7">
+        <v>50000</v>
+      </c>
+      <c r="G7">
+        <v>231</v>
+      </c>
+      <c r="H7">
         <v>54</v>
       </c>
-      <c r="D7">
-        <v>231</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-      <c r="F7">
-        <v>231</v>
-      </c>
-      <c r="G7">
-        <v>50000</v>
-      </c>
-      <c r="H7">
-        <v>231</v>
-      </c>
       <c r="I7">
+        <v>50000</v>
+      </c>
+      <c r="J7">
         <v>54</v>
       </c>
-      <c r="J7">
-        <v>50000</v>
-      </c>
       <c r="K7">
+        <v>231</v>
+      </c>
+      <c r="L7">
         <v>54</v>
       </c>
-      <c r="L7">
-        <v>231</v>
-      </c>
       <c r="M7">
+        <v>50000</v>
+      </c>
+      <c r="N7">
         <v>54</v>
       </c>
-      <c r="N7">
-        <v>50000</v>
-      </c>
       <c r="O7">
+        <v>50000</v>
+      </c>
+      <c r="P7">
+        <v>231</v>
+      </c>
+      <c r="Q7">
         <v>54</v>
       </c>
-      <c r="P7">
-        <v>50000</v>
-      </c>
-      <c r="Q7">
-        <v>231</v>
-      </c>
       <c r="R7">
+        <v>50000</v>
+      </c>
+      <c r="S7">
         <v>54</v>
       </c>
-      <c r="S7">
-        <v>50000</v>
-      </c>
       <c r="T7">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="U7">
-        <v>231</v>
-      </c>
-      <c r="V7">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
       <c r="C8">
+        <v>568</v>
+      </c>
+      <c r="D8">
+        <v>50000</v>
+      </c>
+      <c r="E8">
+        <v>568</v>
+      </c>
+      <c r="F8">
+        <v>50000</v>
+      </c>
+      <c r="G8">
+        <v>568</v>
+      </c>
+      <c r="H8">
         <v>45</v>
       </c>
-      <c r="D8">
+      <c r="I8">
+        <v>50000</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
         <v>568</v>
       </c>
-      <c r="E8">
-        <v>50000</v>
-      </c>
-      <c r="F8">
+      <c r="L8">
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <v>50000</v>
+      </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>50000</v>
+      </c>
+      <c r="P8">
         <v>568</v>
       </c>
-      <c r="G8">
-        <v>50000</v>
-      </c>
-      <c r="H8">
+      <c r="Q8">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>50000</v>
+      </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
+      <c r="T8">
         <v>568</v>
       </c>
-      <c r="I8">
-        <v>45</v>
-      </c>
-      <c r="J8">
-        <v>50000</v>
-      </c>
-      <c r="K8">
-        <v>45</v>
-      </c>
-      <c r="L8">
-        <v>568</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>50000</v>
-      </c>
-      <c r="O8">
-        <v>45</v>
-      </c>
-      <c r="P8">
-        <v>50000</v>
-      </c>
-      <c r="Q8">
-        <v>568</v>
-      </c>
-      <c r="R8">
-        <v>45</v>
-      </c>
-      <c r="S8">
-        <v>50000</v>
-      </c>
-      <c r="T8">
-        <v>45</v>
-      </c>
       <c r="U8">
-        <v>568</v>
-      </c>
-      <c r="V8">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>268</v>
+      </c>
       <c r="C9">
+        <v>464</v>
+      </c>
+      <c r="D9">
+        <v>50000</v>
+      </c>
+      <c r="E9">
+        <v>464</v>
+      </c>
+      <c r="F9">
+        <v>50000</v>
+      </c>
+      <c r="G9">
+        <v>464</v>
+      </c>
+      <c r="H9">
         <v>268</v>
       </c>
-      <c r="D9">
+      <c r="I9">
+        <v>50000</v>
+      </c>
+      <c r="J9">
+        <v>268</v>
+      </c>
+      <c r="K9">
         <v>464</v>
       </c>
-      <c r="E9">
-        <v>50000</v>
-      </c>
-      <c r="F9">
+      <c r="L9">
+        <v>268</v>
+      </c>
+      <c r="M9">
+        <v>50000</v>
+      </c>
+      <c r="N9">
+        <v>268</v>
+      </c>
+      <c r="O9">
+        <v>50000</v>
+      </c>
+      <c r="P9">
         <v>464</v>
       </c>
-      <c r="G9">
-        <v>50000</v>
-      </c>
-      <c r="H9">
+      <c r="Q9">
+        <v>268</v>
+      </c>
+      <c r="R9">
+        <v>50000</v>
+      </c>
+      <c r="S9">
+        <v>268</v>
+      </c>
+      <c r="T9">
         <v>464</v>
       </c>
-      <c r="I9">
-        <v>268</v>
-      </c>
-      <c r="J9">
-        <v>50000</v>
-      </c>
-      <c r="K9">
-        <v>268</v>
-      </c>
-      <c r="L9">
-        <v>464</v>
-      </c>
-      <c r="M9">
-        <v>268</v>
-      </c>
-      <c r="N9">
-        <v>50000</v>
-      </c>
-      <c r="O9">
-        <v>268</v>
-      </c>
-      <c r="P9">
-        <v>50000</v>
-      </c>
-      <c r="Q9">
-        <v>464</v>
-      </c>
-      <c r="R9">
-        <v>268</v>
-      </c>
-      <c r="S9">
-        <v>50000</v>
-      </c>
-      <c r="T9">
-        <v>268</v>
-      </c>
       <c r="U9">
-        <v>464</v>
-      </c>
-      <c r="V9">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>582</v>
+      </c>
       <c r="C10">
-        <v>582</v>
+        <v>97</v>
       </c>
       <c r="D10">
+        <v>50000</v>
+      </c>
+      <c r="E10">
         <v>97</v>
       </c>
-      <c r="E10">
-        <v>50000</v>
-      </c>
       <c r="F10">
+        <v>50000</v>
+      </c>
+      <c r="G10">
         <v>97</v>
       </c>
-      <c r="G10">
-        <v>50000</v>
-      </c>
       <c r="H10">
+        <v>582</v>
+      </c>
+      <c r="I10">
+        <v>50000</v>
+      </c>
+      <c r="J10">
+        <v>582</v>
+      </c>
+      <c r="K10">
         <v>97</v>
       </c>
-      <c r="I10">
-        <v>582</v>
-      </c>
-      <c r="J10">
-        <v>50000</v>
-      </c>
-      <c r="K10">
-        <v>582</v>
-      </c>
       <c r="L10">
+        <v>582</v>
+      </c>
+      <c r="M10">
+        <v>50000</v>
+      </c>
+      <c r="N10">
+        <v>582</v>
+      </c>
+      <c r="O10">
+        <v>50000</v>
+      </c>
+      <c r="P10">
         <v>97</v>
       </c>
-      <c r="M10">
-        <v>582</v>
-      </c>
-      <c r="N10">
-        <v>50000</v>
-      </c>
-      <c r="O10">
-        <v>582</v>
-      </c>
-      <c r="P10">
-        <v>50000</v>
-      </c>
       <c r="Q10">
+        <v>582</v>
+      </c>
+      <c r="R10">
+        <v>50000</v>
+      </c>
+      <c r="S10">
+        <v>582</v>
+      </c>
+      <c r="T10">
         <v>97</v>
       </c>
-      <c r="R10">
-        <v>582</v>
-      </c>
-      <c r="S10">
-        <v>50000</v>
-      </c>
-      <c r="T10">
-        <v>582</v>
-      </c>
       <c r="U10">
-        <v>97</v>
-      </c>
-      <c r="V10">
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>471</v>
+      </c>
       <c r="C11">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>121</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>121</v>
+      </c>
+      <c r="H11">
         <v>471</v>
       </c>
-      <c r="D11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>471</v>
+      </c>
+      <c r="K11">
         <v>121</v>
       </c>
-      <c r="E11">
+      <c r="L11">
+        <v>471</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="N11">
+        <v>471</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>121</v>
       </c>
-      <c r="G11">
+      <c r="Q11">
+        <v>471</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="S11">
+        <v>471</v>
+      </c>
+      <c r="T11">
         <v>121</v>
       </c>
-      <c r="I11">
-        <v>471</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>471</v>
-      </c>
-      <c r="L11">
-        <v>121</v>
-      </c>
-      <c r="M11">
-        <v>471</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>471</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>121</v>
-      </c>
-      <c r="R11">
-        <v>471</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>471</v>
-      </c>
       <c r="U11">
-        <v>121</v>
-      </c>
-      <c r="V11">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>175</v>
+      </c>
       <c r="C12">
+        <v>456</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>456</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>456</v>
+      </c>
+      <c r="H12">
         <v>175</v>
       </c>
-      <c r="D12">
-        <v>456</v>
-      </c>
-      <c r="E12">
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>456</v>
-      </c>
-      <c r="G12">
+      <c r="J12">
+        <v>175</v>
+      </c>
+      <c r="K12">
+        <v>456</v>
+      </c>
+      <c r="L12">
+        <v>175</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>456</v>
-      </c>
-      <c r="I12">
+      <c r="N12">
         <v>175</v>
       </c>
-      <c r="J12">
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="P12">
+        <v>456</v>
+      </c>
+      <c r="Q12">
         <v>175</v>
       </c>
-      <c r="L12">
-        <v>456</v>
-      </c>
-      <c r="M12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>175</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>175</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>456</v>
-      </c>
-      <c r="R12">
-        <v>175</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
       <c r="T12">
-        <v>175</v>
+        <v>456</v>
       </c>
       <c r="U12">
-        <v>456</v>
-      </c>
-      <c r="V12">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>692</v>
+      </c>
       <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
         <v>692</v>
       </c>
-      <c r="D13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>692</v>
+      </c>
+      <c r="K13">
         <v>54</v>
       </c>
-      <c r="E13">
+      <c r="L13">
+        <v>692</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="N13">
+        <v>692</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>54</v>
       </c>
-      <c r="G13">
+      <c r="Q13">
+        <v>692</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="S13">
+        <v>692</v>
+      </c>
+      <c r="T13">
         <v>54</v>
       </c>
-      <c r="I13">
-        <v>692</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>692</v>
-      </c>
-      <c r="L13">
-        <v>54</v>
-      </c>
-      <c r="M13">
-        <v>692</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>692</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>54</v>
-      </c>
-      <c r="R13">
-        <v>692</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>692</v>
-      </c>
       <c r="U13">
-        <v>54</v>
-      </c>
-      <c r="V13">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>582</v>
+      </c>
       <c r="C14">
-        <v>582</v>
+        <v>45</v>
       </c>
       <c r="D14">
+        <v>999</v>
+      </c>
+      <c r="E14">
         <v>45</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>45</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>582</v>
+      </c>
+      <c r="I14">
         <v>999</v>
       </c>
-      <c r="H14">
+      <c r="J14">
+        <v>582</v>
+      </c>
+      <c r="K14">
         <v>45</v>
       </c>
-      <c r="I14">
-        <v>582</v>
-      </c>
-      <c r="J14">
+      <c r="L14">
+        <v>582</v>
+      </c>
+      <c r="M14">
         <v>999</v>
       </c>
-      <c r="K14">
-        <v>582</v>
-      </c>
-      <c r="L14">
+      <c r="N14">
+        <v>582</v>
+      </c>
+      <c r="O14">
+        <v>999</v>
+      </c>
+      <c r="P14">
         <v>45</v>
       </c>
-      <c r="M14">
-        <v>582</v>
-      </c>
-      <c r="N14">
+      <c r="Q14">
+        <v>582</v>
+      </c>
+      <c r="R14">
         <v>999</v>
       </c>
-      <c r="O14">
-        <v>582</v>
-      </c>
-      <c r="P14">
-        <v>999</v>
-      </c>
-      <c r="Q14">
+      <c r="S14">
+        <v>582</v>
+      </c>
+      <c r="T14">
         <v>45</v>
       </c>
-      <c r="R14">
-        <v>582</v>
-      </c>
-      <c r="S14">
-        <v>999</v>
-      </c>
-      <c r="T14">
-        <v>582</v>
-      </c>
       <c r="U14">
-        <v>45</v>
-      </c>
-      <c r="V14">
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>47</v>
+      </c>
       <c r="C15">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="D15">
+        <v>2222</v>
+      </c>
+      <c r="E15">
         <v>268</v>
       </c>
-      <c r="E15">
-        <v>2222</v>
-      </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>268</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>47</v>
+      </c>
+      <c r="K15">
         <v>268</v>
       </c>
-      <c r="I15">
-        <v>47</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>47</v>
-      </c>
       <c r="L15">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>47</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>268</v>
       </c>
-      <c r="M15">
-        <v>47</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>47</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
       <c r="Q15">
+        <v>47</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>47</v>
+      </c>
+      <c r="T15">
         <v>268</v>
       </c>
-      <c r="R15">
-        <v>47</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>47</v>
-      </c>
       <c r="U15">
-        <v>268</v>
-      </c>
-      <c r="V15">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>231</v>
+      </c>
       <c r="C16">
-        <v>231</v>
+        <v>582</v>
       </c>
       <c r="D16">
-        <v>582</v>
+        <v>2222</v>
       </c>
       <c r="E16">
-        <v>2222</v>
+        <v>582</v>
       </c>
       <c r="F16">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="H16">
-        <v>582</v>
+        <v>231</v>
       </c>
       <c r="I16">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="K16">
-        <v>231</v>
+        <v>582</v>
       </c>
       <c r="L16">
-        <v>582</v>
+        <v>231</v>
       </c>
       <c r="M16">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="O16">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="Q16">
-        <v>582</v>
+        <v>231</v>
       </c>
       <c r="R16">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="T16">
-        <v>231</v>
+        <v>582</v>
       </c>
       <c r="U16">
-        <v>582</v>
-      </c>
-      <c r="V16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>568</v>
+      </c>
       <c r="C17">
+        <v>471</v>
+      </c>
+      <c r="D17">
+        <v>2222</v>
+      </c>
+      <c r="E17">
+        <v>471</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>471</v>
+      </c>
+      <c r="H17">
         <v>568</v>
       </c>
-      <c r="D17">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>568</v>
+      </c>
+      <c r="K17">
         <v>471</v>
       </c>
-      <c r="E17">
-        <v>2222</v>
-      </c>
-      <c r="F17">
+      <c r="L17">
+        <v>568</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>568</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>471</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="Q17">
+        <v>568</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>568</v>
+      </c>
+      <c r="T17">
         <v>471</v>
       </c>
-      <c r="I17">
-        <v>568</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>568</v>
-      </c>
-      <c r="L17">
-        <v>471</v>
-      </c>
-      <c r="M17">
-        <v>568</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>568</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>471</v>
-      </c>
-      <c r="R17">
-        <v>568</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>568</v>
-      </c>
       <c r="U17">
-        <v>471</v>
-      </c>
-      <c r="V17">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>464</v>
+      </c>
       <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>2222</v>
+      </c>
+      <c r="E18">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>47</v>
+      </c>
+      <c r="H18">
         <v>464</v>
       </c>
-      <c r="D18">
-        <v>47</v>
-      </c>
-      <c r="E18">
-        <v>2222</v>
-      </c>
-      <c r="F18">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>47</v>
-      </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>464</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
       <c r="K18">
+        <v>47</v>
+      </c>
+      <c r="L18">
         <v>464</v>
       </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>464</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>47</v>
+      </c>
+      <c r="Q18">
         <v>464</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>47</v>
-      </c>
       <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>464</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
       <c r="T18">
-        <v>464</v>
+        <v>47</v>
       </c>
       <c r="U18">
-        <v>47</v>
-      </c>
-      <c r="V18">
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>97</v>
+      </c>
       <c r="C19">
+        <v>231</v>
+      </c>
+      <c r="D19">
+        <v>2222</v>
+      </c>
+      <c r="E19">
+        <v>231</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>231</v>
+      </c>
+      <c r="H19">
         <v>97</v>
       </c>
-      <c r="D19">
-        <v>231</v>
-      </c>
-      <c r="E19">
-        <v>2222</v>
-      </c>
-      <c r="F19">
-        <v>231</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>231</v>
-      </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>97</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
       <c r="K19">
+        <v>231</v>
+      </c>
+      <c r="L19">
         <v>97</v>
       </c>
-      <c r="L19">
-        <v>231</v>
-      </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>97</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>231</v>
+      </c>
+      <c r="Q19">
         <v>97</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>231</v>
-      </c>
       <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>97</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
       <c r="T19">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="U19">
-        <v>231</v>
-      </c>
-      <c r="V19">
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
+      <c r="B20">
+        <v>456</v>
+      </c>
       <c r="C20">
-        <v>456</v>
+        <v>175</v>
       </c>
       <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
         <v>175</v>
       </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
       <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
         <v>175</v>
       </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
       <c r="H20">
+        <v>456</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>456</v>
+      </c>
+      <c r="K20">
         <v>175</v>
       </c>
-      <c r="I20">
-        <v>456</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>456</v>
-      </c>
       <c r="L20">
+        <v>456</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>456</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
         <v>175</v>
       </c>
-      <c r="M20">
-        <v>456</v>
-      </c>
-      <c r="N20">
-        <v>100</v>
-      </c>
-      <c r="O20">
-        <v>456</v>
-      </c>
-      <c r="P20">
-        <v>100</v>
-      </c>
       <c r="Q20">
+        <v>456</v>
+      </c>
+      <c r="R20">
+        <v>100</v>
+      </c>
+      <c r="S20">
+        <v>456</v>
+      </c>
+      <c r="T20">
         <v>175</v>
       </c>
-      <c r="R20">
-        <v>456</v>
-      </c>
-      <c r="S20">
-        <v>100</v>
-      </c>
-      <c r="T20">
-        <v>456</v>
-      </c>
       <c r="U20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>23435</v>
+      </c>
+      <c r="D21">
+        <v>242</v>
+      </c>
+      <c r="E21">
+        <v>21431</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>175</v>
       </c>
-      <c r="V20">
+      <c r="H21">
+        <v>456</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>456</v>
+      </c>
+      <c r="K21">
+        <v>175</v>
+      </c>
+      <c r="L21">
+        <v>21341</v>
+      </c>
+      <c r="M21">
+        <v>143123</v>
+      </c>
+      <c r="N21">
+        <v>111</v>
+      </c>
+      <c r="O21">
+        <v>111</v>
+      </c>
+      <c r="P21">
+        <v>113</v>
+      </c>
+      <c r="Q21">
+        <v>554</v>
+      </c>
+      <c r="R21">
+        <v>32</v>
+      </c>
+      <c r="S21">
+        <v>456</v>
+      </c>
+      <c r="T21">
+        <v>175</v>
+      </c>
+      <c r="U21">
         <v>155</v>
       </c>
     </row>
